--- a/Project กะเพราถาด/Database.xlsx
+++ b/Project กะเพราถาด/Database.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Project กะเพราถาด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niebz\Desktop\MyProjectGroup\Project กะเพราถาด\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06022081-DDA7-412A-B935-9F85E81CD022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081B76EA-FA41-4919-A574-5B3C90F6B6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{79CB3754-C18F-446B-872F-9EC5C23CC8D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79CB3754-C18F-446B-872F-9EC5C23CC8D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB_Oder" sheetId="1" r:id="rId1"/>
-    <sheet name="DB_Account" sheetId="2" r:id="rId2"/>
-    <sheet name="DB_Employee" sheetId="3" r:id="rId3"/>
-    <sheet name="DB_Menu" sheetId="4" r:id="rId4"/>
+    <sheet name="DB_Username" sheetId="5" r:id="rId1"/>
+    <sheet name="DB_Menu" sheetId="4" r:id="rId2"/>
+    <sheet name="DB_Oder" sheetId="1" r:id="rId3"/>
+    <sheet name="DB_Account" sheetId="2" r:id="rId4"/>
+    <sheet name="DB_Employee" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -37,6 +38,27 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>NAME_USER</t>
+  </si>
+  <si>
+    <t>TEL.</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>SALARY</t>
+  </si>
+  <si>
+    <t>IMG_USER</t>
+  </si>
+  <si>
+    <t>PASSWORD_USER</t>
+  </si>
+  <si>
+    <t>HIRE_DATE</t>
   </si>
 </sst>
 </file>
@@ -73,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -388,11 +413,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2948B476-E947-458A-B827-EDD04496B7AA}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC742B-E4DF-4F60-9B22-F29F367C6768}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CC277E-8F71-4F7F-9701-2F565090A11D}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -416,7 +503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD3961-E0A4-4337-B41B-F8744E6C3F59}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -430,7 +517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15603B0A-2F44-4AFF-9421-17FF680A44D7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -442,18 +529,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC742B-E4DF-4F60-9B22-F29F367C6768}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Project กะเพราถาด/Database.xlsx
+++ b/Project กะเพราถาด/Database.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niebz\Desktop\MyProjectGroup\Project กะเพราถาด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Project กะเพราถาด\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081B76EA-FA41-4919-A574-5B3C90F6B6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06022081-DDA7-412A-B935-9F85E81CD022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79CB3754-C18F-446B-872F-9EC5C23CC8D6}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{79CB3754-C18F-446B-872F-9EC5C23CC8D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB_Username" sheetId="5" r:id="rId1"/>
-    <sheet name="DB_Menu" sheetId="4" r:id="rId2"/>
-    <sheet name="DB_Oder" sheetId="1" r:id="rId3"/>
-    <sheet name="DB_Account" sheetId="2" r:id="rId4"/>
-    <sheet name="DB_Employee" sheetId="3" r:id="rId5"/>
+    <sheet name="DB_Oder" sheetId="1" r:id="rId1"/>
+    <sheet name="DB_Account" sheetId="2" r:id="rId2"/>
+    <sheet name="DB_Employee" sheetId="3" r:id="rId3"/>
+    <sheet name="DB_Menu" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID</t>
   </si>
@@ -38,27 +37,6 @@
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>NAME_USER</t>
-  </si>
-  <si>
-    <t>TEL.</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
-    <t>SALARY</t>
-  </si>
-  <si>
-    <t>IMG_USER</t>
-  </si>
-  <si>
-    <t>PASSWORD_USER</t>
-  </si>
-  <si>
-    <t>HIRE_DATE</t>
   </si>
 </sst>
 </file>
@@ -95,11 +73,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -413,73 +388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2948B476-E947-458A-B827-EDD04496B7AA}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC742B-E4DF-4F60-9B22-F29F367C6768}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CC277E-8F71-4F7F-9701-2F565090A11D}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,7 +416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD3961-E0A4-4337-B41B-F8744E6C3F59}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -517,7 +430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15603B0A-2F44-4AFF-9421-17FF680A44D7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -529,4 +442,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC742B-E4DF-4F60-9B22-F29F367C6768}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project กะเพราถาด/Database.xlsx
+++ b/Project กะเพราถาด/Database.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Project กะเพราถาด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niebz\Desktop\MyProjectGroup\Project กะเพราถาด\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06022081-DDA7-412A-B935-9F85E81CD022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECC028D-A7B5-4C51-B7AD-8415857DEF90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{79CB3754-C18F-446B-872F-9EC5C23CC8D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79CB3754-C18F-446B-872F-9EC5C23CC8D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB_Oder" sheetId="1" r:id="rId1"/>
-    <sheet name="DB_Account" sheetId="2" r:id="rId2"/>
+    <sheet name="DB_Account" sheetId="2" r:id="rId1"/>
+    <sheet name="DB_Oder" sheetId="1" r:id="rId2"/>
     <sheet name="DB_Employee" sheetId="3" r:id="rId3"/>
     <sheet name="DB_Menu" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -37,19 +37,75 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>img_user</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	name_user</t>
+  </si>
+  <si>
+    <t>password_user</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>hire_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	longblob	</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date	</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,8 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -388,10 +450,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD3961-E0A4-4337-B41B-F8744E6C3F59}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CC277E-8F71-4F7F-9701-2F565090A11D}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -412,20 +566,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD3961-E0A4-4337-B41B-F8744E6C3F59}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
